--- a/app/static/input_files/samples/ACFR_template_Clayton_2022_Updated_20240505pm.xlsx
+++ b/app/static/input_files/samples/ACFR_template_Clayton_2022_Updated_20240505pm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarrahahmed/Desktop/CLOSUP/process-xbrl/app/static/input_files/samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/app/static/input_files/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F8EE84-B60B-EA41-A56F-1B0B3CE15BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F818CA-0327-0A45-8C4A-A0B7157AF35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="940" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup Net Position" sheetId="8" r:id="rId1"/>
@@ -13018,8 +13018,8 @@
   </sheetPr>
   <dimension ref="A1:G691"/>
   <sheetViews>
-    <sheetView topLeftCell="A454" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B284" sqref="B284:B367"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -33076,7 +33076,7 @@
   </sheetPr>
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
